--- a/10-05-25 to 10-11-25 Milwaukee Schedule.xlsx
+++ b/10-05-25 to 10-11-25 Milwaukee Schedule.xlsx
@@ -1112,7 +1112,7 @@
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
-          <t>STORE RESET-REMAPPED</t>
+          <t>FULL STORE RESET-REMAPPED</t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>STORE RESET-REMAPPED</t>
+          <t>FULL STORE RESET-REMAPPED</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>

--- a/10-05-25 to 10-11-25 Milwaukee Schedule.xlsx
+++ b/10-05-25 to 10-11-25 Milwaukee Schedule.xlsx
@@ -2405,7 +2405,11 @@
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>USE PRICE LISTED ON SHELF TAGS</t>
+        </is>
+      </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>

--- a/10-05-25 to 10-11-25 Milwaukee Schedule.xlsx
+++ b/10-05-25 to 10-11-25 Milwaukee Schedule.xlsx
@@ -2407,7 +2407,7 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>USE PRICE LISTED ON SHELF TAGS</t>
+          <t>USE PRICE LISTED ON DIGITAL SHELF TAGS</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -2451,22 +2451,13 @@
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>Driver,
-Altima, Equip</t>
-        </is>
-      </c>
+          <t>WE WILL NOW BE USING PRICES AS LISTED. IF IT'S A SALE PRICE LISTED THEN TAKE THE SALE PRICE</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
@@ -2507,21 +2498,9 @@
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>Trainer</t>
-        </is>
-      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
@@ -2564,17 +2543,18 @@
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Sara S</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>1st Financial work w/ Leyna</t>
+          <t>Driver,
+Altima, Equip</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
@@ -2619,17 +2599,17 @@
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Sophia</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>4th week</t>
+          <t>Trainer</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
@@ -2666,17 +2646,17 @@
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Sara S</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>1st Financial work w/ Leyna</t>
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
@@ -2737,17 +2717,17 @@
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Sophia</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>4th week</t>
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
@@ -2806,12 +2786,12 @@
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2881,12 +2861,12 @@
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2957,18 +2937,17 @@
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>@ Store,
-After Aurora</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
@@ -3027,9 +3006,21 @@
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
@@ -3086,9 +3077,22 @@
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>@ Store,
+After Aurora</t>
+        </is>
+      </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
@@ -3159,11 +3163,7 @@
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
@@ -3226,11 +3226,7 @@
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>MODAS-SCAN</t>
-        </is>
-      </c>
+      <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
@@ -3296,7 +3292,7 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1068, WATERFORD</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
@@ -3360,7 +3356,7 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>818 FORREST LANE, SUITE 101</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
@@ -3432,7 +3428,7 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/34AqDr4Gxcn8xkqSA</t>
+          <t>AURORA OUTPATIENT RX #1068, WATERFORD</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
@@ -3501,7 +3497,11 @@
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>818 FORREST LANE, SUITE 101</t>
+        </is>
+      </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
@@ -3555,21 +3555,13 @@
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/34AqDr4Gxcn8xkqSA</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -3683,9 +3675,21 @@
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
@@ -3728,11 +3732,7 @@
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>6:30 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
-        </is>
-      </c>
+      <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
@@ -3775,11 +3775,7 @@
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
@@ -3824,7 +3820,7 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>6:30 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
@@ -3867,7 +3863,7 @@
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>OPEN PANTRY #493, RACINE</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
@@ -3910,7 +3906,7 @@
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
-          <t>3441 SPRING ST</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
@@ -3957,7 +3953,7 @@
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/8i7XHemjTpL2</t>
+          <t>OPEN PANTRY #493, RACINE</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
@@ -4003,7 +3999,11 @@
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3441 SPRING ST</t>
+        </is>
+      </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
@@ -4041,21 +4041,13 @@
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/8i7XHemjTpL2</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
@@ -4097,16 +4089,8 @@
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
@@ -4171,18 +4155,17 @@
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Driver,
-Optima</t>
+          <t>Equip</t>
         </is>
       </c>
       <c r="H64" t="inlineStr"/>
@@ -4234,8 +4217,16 @@
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
@@ -4281,9 +4272,22 @@
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima</t>
+        </is>
+      </c>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>

--- a/10-05-25 to 10-11-25 Milwaukee Schedule.xlsx
+++ b/10-05-25 to 10-11-25 Milwaukee Schedule.xlsx
@@ -2064,14 +2064,10 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Sara S</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>2nd week, work w/ Leyna</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
     </row>
@@ -2144,10 +2140,14 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="W28" t="inlineStr"/>
+          <t>Sophia</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>3rd week</t>
+        </is>
+      </c>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
     </row>
@@ -2208,21 +2208,9 @@
         </is>
       </c>
       <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="V29" t="inlineStr">
-        <is>
-          <t>Sophia</t>
-        </is>
-      </c>
-      <c r="W29" t="inlineStr">
-        <is>
-          <t>3rd week</t>
-        </is>
-      </c>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
     </row>
@@ -2308,7 +2296,11 @@
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>4:45 AM MEET WATERTOWN PLANK</t>
+        </is>
+      </c>
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
@@ -2345,7 +2337,7 @@
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr">
         <is>
-          <t>4:45 AM MEET WATERTOWN PLANK</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="W32" t="inlineStr"/>
@@ -2392,7 +2384,7 @@
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W33" t="inlineStr"/>
@@ -2439,7 +2431,7 @@
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>FESTIVAL #2695, NEW LONDON - LIFO</t>
         </is>
       </c>
       <c r="W34" t="inlineStr"/>
@@ -2486,7 +2478,7 @@
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t>FESTIVAL #2695, NEW LONDON - LIFO</t>
+          <t>308 N SHAWANO ST</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
@@ -2529,7 +2521,7 @@
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
         <is>
-          <t>308 N SHAWANO ST</t>
+          <t>https://goo.gl/maps/zqprqLmVpCzdH3s86</t>
         </is>
       </c>
       <c r="W36" t="inlineStr"/>
@@ -2583,11 +2575,7 @@
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/zqprqLmVpCzdH3s86</t>
-        </is>
-      </c>
+      <c r="V37" t="inlineStr"/>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
@@ -2633,9 +2621,21 @@
       </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
-      <c r="W38" t="inlineStr"/>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Jeremiah</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
     </row>
@@ -2651,12 +2651,12 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Sara S</t>
+          <t>Sophia</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>1st Financial work w/ Leyna</t>
+          <t>4th week</t>
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
@@ -2694,17 +2694,18 @@
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>Driver,
+Wht Camry</t>
         </is>
       </c>
       <c r="X39" t="inlineStr"/>
@@ -2722,12 +2723,12 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Sophia</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>4th week</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
@@ -2762,20 +2763,15 @@
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="W40" t="inlineStr">
-        <is>
-          <t>Driver,
-Wht Camry</t>
-        </is>
-      </c>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
     </row>
@@ -2791,7 +2787,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2842,15 +2838,19 @@
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="W41" t="inlineStr"/>
+          <t>Annette</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
     </row>
@@ -2866,7 +2866,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2914,12 +2914,12 @@
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Ariel</t>
         </is>
       </c>
       <c r="W42" t="inlineStr">
@@ -2942,7 +2942,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2985,12 +2985,12 @@
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>Ariel</t>
+          <t>Dan</t>
         </is>
       </c>
       <c r="W43" t="inlineStr">
@@ -3013,12 +3013,13 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+After Aurora</t>
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
@@ -3056,12 +3057,12 @@
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>Dan</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="W44" t="inlineStr">
@@ -3077,22 +3078,9 @@
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>@ Store,
-After Aurora</t>
-        </is>
-      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
@@ -3101,14 +3089,10 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Sara S</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>2nd week, work w/ Anisha</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
@@ -3141,12 +3125,12 @@
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="W45" t="inlineStr">
@@ -3173,10 +3157,14 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr"/>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
@@ -3204,12 +3192,12 @@
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="W46" t="inlineStr">
@@ -3226,7 +3214,11 @@
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
@@ -3236,13 +3228,13 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>@ Store,
-Trainer</t>
+Supv Rx</t>
         </is>
       </c>
       <c r="L47" t="inlineStr"/>
@@ -3268,12 +3260,12 @@
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="W47" t="inlineStr">
@@ -3292,7 +3284,7 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
@@ -3304,13 +3296,13 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>@ Store,
-Supv Rx</t>
+Rx</t>
         </is>
       </c>
       <c r="L48" t="inlineStr"/>
@@ -3332,12 +3324,12 @@
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="W48" t="inlineStr">
@@ -3356,7 +3348,7 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>AURORA OUTPATIENT RX #1068, WATERFORD</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
@@ -3368,13 +3360,12 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L49" t="inlineStr"/>
@@ -3388,11 +3379,7 @@
           <t>Leyna</t>
         </is>
       </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>Trainer</t>
-        </is>
-      </c>
+      <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">
@@ -3404,12 +3391,12 @@
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="W49" t="inlineStr">
@@ -3428,26 +3415,14 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1068, WATERFORD</t>
+          <t>818 FORREST LANE, SUITE 101</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Josh S</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
@@ -3475,12 +3450,12 @@
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="W50" t="inlineStr">
@@ -3499,7 +3474,7 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>818 FORREST LANE, SUITE 101</t>
+          <t>https://goo.gl/maps/34AqDr4Gxcn8xkqSA</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
@@ -3534,12 +3509,12 @@
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="W51" t="inlineStr">
@@ -3556,15 +3531,16 @@
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/34AqDr4Gxcn8xkqSA</t>
-        </is>
-      </c>
+      <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>BROWN DEER PARK N RIDE:
+1189 W BROWN DEER RD, RIVER HILLS, WI</t>
+        </is>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
@@ -3574,12 +3550,13 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Sara S</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2nd week, work w/ Leyna</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="P52" t="inlineStr"/>
@@ -3593,12 +3570,12 @@
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Terri</t>
         </is>
       </c>
       <c r="W52" t="inlineStr">
@@ -3614,15 +3591,26 @@
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
         <is>
-          <t>BROWN DEER PARK N RIDE:
-1189 W BROWN DEER RD, RIVER HILLS, WI</t>
+          <t>5:15 AM MEET AT BROWN DEER RD PARK AND RIDE</t>
         </is>
       </c>
       <c r="K53" t="inlineStr"/>
@@ -3634,13 +3622,13 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
           <t>@ Store,
-Rx</t>
+Supv Rx</t>
         </is>
       </c>
       <c r="P53" t="inlineStr"/>
@@ -3652,21 +3640,9 @@
       </c>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="V53" t="inlineStr">
-        <is>
-          <t>Terri</t>
-        </is>
-      </c>
-      <c r="W53" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
     </row>
@@ -3675,46 +3651,21 @@
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
-          <t>5:15 AM MEET AT BROWN DEER RD PARK AND RIDE</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>@ Store,
-Supv Rx</t>
-        </is>
-      </c>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr"/>
@@ -3738,7 +3689,7 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="K55" t="inlineStr"/>
@@ -3764,7 +3715,11 @@
       </c>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
-      <c r="V55" t="inlineStr"/>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>5:15 AM OFFICE MEET</t>
+        </is>
+      </c>
       <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="inlineStr"/>
@@ -3775,19 +3730,27 @@
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6:30 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
+        </is>
+      </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>AURORA OUTPATIENT RX #1224, SHEBOYGAN</t>
         </is>
       </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr">
@@ -3805,7 +3768,7 @@
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr">
         <is>
-          <t>5:15 AM OFFICE MEET</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="W56" t="inlineStr"/>
@@ -3820,7 +3783,7 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>6:30 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
@@ -3828,7 +3791,7 @@
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1224, SHEBOYGAN</t>
+          <t>3400 UNION AVE, SUITE 1C-1006</t>
         </is>
       </c>
       <c r="K57" t="inlineStr"/>
@@ -3836,7 +3799,7 @@
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
@@ -3848,7 +3811,7 @@
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W57" t="inlineStr"/>
@@ -3863,7 +3826,7 @@
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
@@ -3871,7 +3834,7 @@
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>3400 UNION AVE, SUITE 1C-1006</t>
+          <t>https://maps.app.goo.gl/GqqLoKHFL9hU5UCm8</t>
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
@@ -3879,7 +3842,7 @@
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>AURORA OUTPATIENT RX #1050, ST FRANCIS</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
@@ -3891,7 +3854,7 @@
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>FESTIVAL #2713, MADISON - LIFO</t>
         </is>
       </c>
       <c r="W58" t="inlineStr"/>
@@ -3906,7 +3869,7 @@
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>OPEN PANTRY #493, RACINE</t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
@@ -3914,7 +3877,7 @@
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/GqqLoKHFL9hU5UCm8</t>
+          <t>BE AWARE THAT THE MEET IS AT BROWN DEER RD PNR</t>
         </is>
       </c>
       <c r="K59" t="inlineStr"/>
@@ -3922,7 +3885,8 @@
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1050, ST FRANCIS</t>
+          <t>2000 E LAYTON AVENUE 
+SUITE 150</t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
@@ -3938,7 +3902,7 @@
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr">
         <is>
-          <t>FESTIVAL #2713, MADISON - LIFO</t>
+          <t>810 E WASHINGTON AVE</t>
         </is>
       </c>
       <c r="W59" t="inlineStr"/>
@@ -3953,24 +3917,19 @@
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t>OPEN PANTRY #493, RACINE</t>
+          <t>3441 SPRING ST</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>BE AWARE THAT THE MEET IS AT BROWN DEER RD PNR</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
         <is>
-          <t>2000 E LAYTON AVENUE 
-SUITE 150</t>
+          <t>https://goo.gl/maps/saDijnsPM7S2</t>
         </is>
       </c>
       <c r="O60" t="inlineStr"/>
@@ -3986,7 +3945,7 @@
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr">
         <is>
-          <t>810 E WASHINGTON AVE</t>
+          <t>https://goo.gl/maps/LTUs2YEH41J2</t>
         </is>
       </c>
       <c r="W60" t="inlineStr"/>
@@ -4001,21 +3960,30 @@
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
-          <t>3441 SPRING ST</t>
+          <t>https://goo.gl/maps/8i7XHemjTpL2</t>
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Driver,
+Santa Fe, Equip</t>
+        </is>
+      </c>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/saDijnsPM7S2</t>
-        </is>
-      </c>
+      <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
@@ -4027,11 +3995,7 @@
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/LTUs2YEH41J2</t>
-        </is>
-      </c>
+      <c r="V61" t="inlineStr"/>
       <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
@@ -4042,33 +4006,37 @@
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/8i7XHemjTpL2</t>
-        </is>
-      </c>
+      <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
           <t>1)</t>
         </is>
       </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
         <is>
           <t>Driver,
-Santa Fe, Equip</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
-      <c r="O62" t="inlineStr"/>
+Wht Camry, Equip</t>
+        </is>
+      </c>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr">
@@ -4078,9 +4046,21 @@
       </c>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr"/>
-      <c r="V62" t="inlineStr"/>
-      <c r="W62" t="inlineStr"/>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr"/>
     </row>
@@ -4089,38 +4069,37 @@
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>Monica</t>
-        </is>
-      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>Driver,
-Wht Camry, Equip</t>
-        </is>
-      </c>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr">
@@ -4132,17 +4111,18 @@
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="W63" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>Driver,
+Altima</t>
         </is>
       </c>
       <c r="X63" t="inlineStr"/>
@@ -4155,19 +4135,15 @@
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -4175,12 +4151,12 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O64" t="inlineStr"/>
@@ -4195,20 +4171,15 @@
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="W64" t="inlineStr">
-        <is>
-          <t>Driver,
-Altima</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr"/>
       <c r="X64" t="inlineStr"/>
       <c r="Y64" t="inlineStr"/>
     </row>
@@ -4219,30 +4190,27 @@
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr"/>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima</t>
+        </is>
+      </c>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
@@ -4255,15 +4223,19 @@
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="W65" t="inlineStr"/>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X65" t="inlineStr"/>
       <c r="Y65" t="inlineStr"/>
     </row>
@@ -4272,22 +4244,9 @@
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>Driver,
-Optima</t>
-        </is>
-      </c>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -4307,12 +4266,12 @@
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="W66" t="inlineStr">
@@ -4337,7 +4296,11 @@
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>6:00 AM OFFICE MEET</t>
+        </is>
+      </c>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr"/>
@@ -4351,12 +4314,12 @@
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="W67" t="inlineStr">
@@ -4383,7 +4346,7 @@
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr">
         <is>
-          <t>6:00 AM OFFICE MEET</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="O68" t="inlineStr"/>
@@ -4394,12 +4357,12 @@
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="W68" t="inlineStr">
@@ -4426,7 +4389,7 @@
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="O69" t="inlineStr"/>
@@ -4449,12 +4412,12 @@
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="W69" t="inlineStr">
@@ -4481,7 +4444,7 @@
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>OPEN PANTRY #9570, RACINE</t>
         </is>
       </c>
       <c r="O70" t="inlineStr"/>
@@ -4504,12 +4467,12 @@
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="W70" t="inlineStr">
@@ -4536,7 +4499,7 @@
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr">
         <is>
-          <t>OPEN PANTRY #9570, RACINE</t>
+          <t>2731 DURAND AVE</t>
         </is>
       </c>
       <c r="O71" t="inlineStr"/>
@@ -4555,12 +4518,12 @@
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="W71" t="inlineStr">
@@ -4587,7 +4550,7 @@
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr">
         <is>
-          <t>2731 DURAND AVE</t>
+          <t>https://goo.gl/maps/boUkpED44a62</t>
         </is>
       </c>
       <c r="O72" t="inlineStr"/>
@@ -4611,12 +4574,12 @@
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="W72" t="inlineStr">
@@ -4641,11 +4604,7 @@
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/boUkpED44a62</t>
-        </is>
-      </c>
+      <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr">
@@ -4666,12 +4625,12 @@
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="W73" t="inlineStr">
@@ -4695,9 +4654,21 @@
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="inlineStr"/>
-      <c r="O74" t="inlineStr"/>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr">
         <is>
@@ -4713,12 +4684,12 @@
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="W74" t="inlineStr">
@@ -4744,17 +4715,18 @@
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Equip</t>
+          <t>Driver,
+Optima</t>
         </is>
       </c>
       <c r="P75" t="inlineStr"/>
@@ -4770,21 +4742,9 @@
       </c>
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
-      <c r="U75" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="V75" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="W75" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U75" t="inlineStr"/>
+      <c r="V75" t="inlineStr"/>
+      <c r="W75" t="inlineStr"/>
       <c r="X75" t="inlineStr"/>
       <c r="Y75" t="inlineStr"/>
     </row>
@@ -4801,22 +4761,9 @@
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>Driver,
-Optima</t>
-        </is>
-      </c>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr"/>
       <c r="Q76" t="inlineStr">
         <is>

--- a/10-05-25 to 10-11-25 Milwaukee Schedule.xlsx
+++ b/10-05-25 to 10-11-25 Milwaukee Schedule.xlsx
@@ -3995,7 +3995,11 @@
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr"/>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>FEW RESETS-REMAPPED</t>
+        </is>
+      </c>
       <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
@@ -4046,21 +4050,9 @@
       </c>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V62" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="W62" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="U62" t="inlineStr"/>
+      <c r="V62" t="inlineStr"/>
+      <c r="W62" t="inlineStr"/>
       <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr"/>
     </row>
@@ -4111,18 +4103,17 @@
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="W63" t="inlineStr">
         <is>
-          <t>Driver,
-Altima</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="X63" t="inlineStr"/>
@@ -4171,15 +4162,20 @@
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="W64" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>Driver,
+Altima</t>
+        </is>
+      </c>
       <c r="X64" t="inlineStr"/>
       <c r="Y64" t="inlineStr"/>
     </row>
@@ -4223,19 +4219,15 @@
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="W65" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr"/>
       <c r="X65" t="inlineStr"/>
       <c r="Y65" t="inlineStr"/>
     </row>
@@ -4266,12 +4258,12 @@
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="W66" t="inlineStr">
@@ -4314,12 +4306,12 @@
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="W67" t="inlineStr">
@@ -4357,12 +4349,12 @@
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="W68" t="inlineStr">
@@ -4412,12 +4404,12 @@
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="W69" t="inlineStr">
@@ -4467,12 +4459,12 @@
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="W70" t="inlineStr">
@@ -4518,12 +4510,12 @@
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="W71" t="inlineStr">
@@ -4574,12 +4566,12 @@
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="W72" t="inlineStr">
@@ -4625,12 +4617,12 @@
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="W73" t="inlineStr">
@@ -4684,12 +4676,12 @@
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="W74" t="inlineStr">
@@ -4742,9 +4734,21 @@
       </c>
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
-      <c r="U75" t="inlineStr"/>
-      <c r="V75" t="inlineStr"/>
-      <c r="W75" t="inlineStr"/>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="W75" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X75" t="inlineStr"/>
       <c r="Y75" t="inlineStr"/>
     </row>

--- a/10-05-25 to 10-11-25 Milwaukee Schedule.xlsx
+++ b/10-05-25 to 10-11-25 Milwaukee Schedule.xlsx
@@ -3379,7 +3379,11 @@
           <t>Leyna</t>
         </is>
       </c>
-      <c r="O49" t="inlineStr"/>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>After Aurora</t>
+        </is>
+      </c>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">
@@ -3495,7 +3499,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>After Aurora</t>
+          <t>Until 9:00</t>
         </is>
       </c>
       <c r="P51" t="inlineStr"/>
@@ -4088,7 +4092,7 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="O63" t="inlineStr"/>
@@ -4147,7 +4151,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="O64" t="inlineStr"/>

--- a/10-05-25 to 10-11-25 Milwaukee Schedule.xlsx
+++ b/10-05-25 to 10-11-25 Milwaukee Schedule.xlsx
@@ -3119,7 +3119,7 @@
       <c r="S45" t="inlineStr">
         <is>
           <t>Driver,
-Wht Camry, Equip</t>
+Santa Fe, Equip</t>
         </is>
       </c>
       <c r="T45" t="inlineStr"/>

--- a/10-05-25 to 10-11-25 Milwaukee Schedule.xlsx
+++ b/10-05-25 to 10-11-25 Milwaukee Schedule.xlsx
@@ -1865,7 +1865,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -1934,8 +1934,16 @@
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
@@ -2005,8 +2013,16 @@
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
@@ -2077,11 +2093,7 @@
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>5:15 AM MEET SOUTH RACINE COURT (HWY 43 &amp; Y)</t>
-        </is>
-      </c>
+      <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
@@ -2157,11 +2169,7 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
@@ -2222,7 +2230,7 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>5:15 AM MEET SOUTH RACINE COURT (HWY 43 &amp; Y)</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -2278,7 +2286,7 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>DANIELS SENTRY #2883 +C-STORE, WALWORTH</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -2313,7 +2321,7 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>681 KENOSHA STREET</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -2352,7 +2360,7 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/HNNz6gdZ7vw</t>
+          <t>DANIELS SENTRY #2883 +C-STORE, WALWORTH</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -2399,7 +2407,7 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>USE PRICE LISTED ON DIGITAL SHELF TAGS</t>
+          <t>681 KENOSHA STREET</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -2446,7 +2454,7 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>WE WILL NOW BE USING PRICES AS LISTED. IF IT'S A SALE PRICE LISTED THEN TAKE THE SALE PRICE</t>
+          <t>https://goo.gl/maps/HNNz6gdZ7vw</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -2491,7 +2499,11 @@
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>USE PRICE LISTED ON DIGITAL SHELF TAGS</t>
+        </is>
+      </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
@@ -2533,22 +2545,13 @@
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>Driver,
-Altima, Equip</t>
-        </is>
-      </c>
+          <t>WE WILL NOW BE USING PRICES AS LISTED. IF IT'S A SALE PRICE LISTED THEN TAKE THE SALE PRICE</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
@@ -2585,21 +2588,9 @@
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>Trainer</t>
-        </is>
-      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -2646,17 +2637,18 @@
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Sophia</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>4th week</t>
+          <t>Driver,
+Altima, Equip</t>
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
@@ -2718,19 +2710,15 @@
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
@@ -2782,17 +2770,17 @@
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Trainer</t>
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
@@ -2861,17 +2849,17 @@
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Sophia</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>4th week</t>
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
@@ -2937,12 +2925,12 @@
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -3008,18 +2996,17 @@
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>@ Store,
-After Aurora</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
@@ -3078,9 +3065,21 @@
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
@@ -3146,9 +3145,21 @@
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
@@ -3213,13 +3224,22 @@
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr"/>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>@ Store,
+After Aurora</t>
+        </is>
+      </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
@@ -3282,11 +3302,7 @@
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>MODAS-SCAN</t>
-        </is>
-      </c>
+      <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
@@ -3313,7 +3329,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
@@ -3346,11 +3362,7 @@
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>AURORA OUTPATIENT RX #1068, WATERFORD</t>
-        </is>
-      </c>
+      <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
@@ -3376,14 +3388,10 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>After Aurora</t>
-        </is>
-      </c>
+          <t>Lexi</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">
@@ -3419,7 +3427,7 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>818 FORREST LANE, SUITE 101</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
@@ -3435,7 +3443,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -3478,7 +3486,7 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/34AqDr4Gxcn8xkqSA</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
@@ -3494,12 +3502,12 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Until 9:00</t>
+          <t>After Aurora</t>
         </is>
       </c>
       <c r="P51" t="inlineStr"/>
@@ -3535,7 +3543,11 @@
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>AURORA OUTPATIENT RX #1068, WATERFORD</t>
+        </is>
+      </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
@@ -3554,13 +3566,12 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>Until 9:00</t>
         </is>
       </c>
       <c r="P52" t="inlineStr"/>
@@ -3595,21 +3606,13 @@
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>818 FORREST LANE, SUITE 101</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
@@ -3626,15 +3629,10 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>@ Store,
-Supv Rx</t>
-        </is>
-      </c>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
@@ -3656,7 +3654,11 @@
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/34AqDr4Gxcn8xkqSA</t>
+        </is>
+      </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
@@ -3667,9 +3669,22 @@
       </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
-      <c r="O54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>@ Store,
+Rx</t>
+        </is>
+      </c>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr"/>
@@ -3698,9 +3713,22 @@
       </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
-      <c r="O55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>@ Store,
+Supv Rx</t>
+        </is>
+      </c>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr">
         <is>
@@ -3733,13 +3761,21 @@
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>6:30 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr"/>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
@@ -3750,11 +3786,7 @@
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr">
@@ -3785,11 +3817,7 @@
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
@@ -3801,11 +3829,7 @@
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>MODAS-SCAN</t>
-        </is>
-      </c>
+      <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
@@ -3828,11 +3852,7 @@
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>MODAS-SCAN</t>
-        </is>
-      </c>
+      <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
@@ -3846,7 +3866,7 @@
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1050, ST FRANCIS</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
@@ -3871,11 +3891,7 @@
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>OPEN PANTRY #493, RACINE</t>
-        </is>
-      </c>
+      <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
@@ -3889,8 +3905,7 @@
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
-          <t>2000 E LAYTON AVENUE 
-SUITE 150</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
@@ -3919,11 +3934,7 @@
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>3441 SPRING ST</t>
-        </is>
-      </c>
+      <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
@@ -3933,7 +3944,7 @@
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/saDijnsPM7S2</t>
+          <t>AURORA OUTPATIENT RX #1050, ST FRANCIS</t>
         </is>
       </c>
       <c r="O60" t="inlineStr"/>
@@ -3962,11 +3973,7 @@
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/8i7XHemjTpL2</t>
-        </is>
-      </c>
+      <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
@@ -3987,7 +3994,12 @@
       </c>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>2000 E LAYTON AVENUE 
+SUITE 150</t>
+        </is>
+      </c>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
@@ -4029,22 +4041,13 @@
       </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>Driver,
-Wht Camry, Equip</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/saDijnsPM7S2</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr">
@@ -4065,36 +4068,16 @@
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>Leyna</t>
-        </is>
-      </c>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
@@ -4128,16 +4111,8 @@
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
@@ -4146,15 +4121,20 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>Driver,
+Wht Camry, Equip</t>
+        </is>
+      </c>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr">
@@ -4188,29 +4168,24 @@
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>Driver,
-Optima</t>
-        </is>
-      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>Leyna</t>
+        </is>
+      </c>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
@@ -4248,8 +4223,16 @@
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>Monica</t>
+        </is>
+      </c>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
@@ -4292,11 +4275,7 @@
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>6:00 AM OFFICE MEET</t>
-        </is>
-      </c>
+      <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr"/>
@@ -4340,11 +4319,7 @@
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
@@ -4383,11 +4358,7 @@
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr"/>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>MODAS-SCAN</t>
-        </is>
-      </c>
+      <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr">
@@ -4438,11 +4409,7 @@
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>OPEN PANTRY #9570, RACINE</t>
-        </is>
-      </c>
+      <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr">
@@ -4493,11 +4460,7 @@
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr"/>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>2731 DURAND AVE</t>
-        </is>
-      </c>
+      <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr">
@@ -4544,11 +4507,7 @@
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr"/>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/boUkpED44a62</t>
-        </is>
-      </c>
+      <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr">
@@ -4650,21 +4609,9 @@
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr">
         <is>
@@ -4709,22 +4656,9 @@
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="N75" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t>Driver,
-Optima</t>
-        </is>
-      </c>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr">
         <is>

--- a/10-05-25 to 10-11-25 Milwaukee Schedule.xlsx
+++ b/10-05-25 to 10-11-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y87"/>
+  <dimension ref="A1:Y77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3396,7 +3396,7 @@
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>3:30 AM OFFICE MEET</t>
         </is>
       </c>
       <c r="S49" t="inlineStr"/>
@@ -3455,7 +3455,7 @@
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="S50" t="inlineStr"/>
@@ -3514,7 +3514,7 @@
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr">
         <is>
-          <t>OPEN PANTRY #605, BAYSIDE</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S51" t="inlineStr"/>
@@ -3578,7 +3578,7 @@
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
         <is>
-          <t>501 W BROWN DEER RD</t>
+          <t>FESTIVAL #2720, LACROSSE VILLAGE - LIFO</t>
         </is>
       </c>
       <c r="S52" t="inlineStr"/>
@@ -3637,7 +3637,7 @@
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/pQaSRAn88Vh6DAQ58</t>
+          <t>2500 STATE RD</t>
         </is>
       </c>
       <c r="S53" t="inlineStr"/>
@@ -3687,7 +3687,11 @@
       </c>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/LmjtMiqATfw</t>
+        </is>
+      </c>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
@@ -3730,21 +3734,13 @@
         </is>
       </c>
       <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S55" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+          <t>*JERRY* meet with Bri at Deforest Park n Ride to help split up the drive</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr">
@@ -3789,14 +3785,10 @@
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Jerry + van to meet with Bri at 4:35 at the Deforest Park n Ride</t>
         </is>
       </c>
       <c r="S56" t="inlineStr"/>
@@ -3833,7 +3825,12 @@
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>Address to meet Bri at is:
+5012 Elephant Trail, DeForest</t>
+        </is>
+      </c>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
@@ -3910,13 +3907,21 @@
       </c>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>3:30 AM OFFICE MEET</t>
-        </is>
-      </c>
-      <c r="S59" t="inlineStr"/>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr">
@@ -3949,13 +3954,21 @@
       </c>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
-      <c r="S60" t="inlineStr"/>
+          <t>Bri</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>*meeting in Deforest</t>
+        </is>
+      </c>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr">
@@ -4002,10 +4015,14 @@
       </c>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>Caitlin</t>
         </is>
       </c>
       <c r="S61" t="inlineStr"/>
@@ -4049,13 +4066,22 @@
       </c>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>FESTIVAL #2720, LACROSSE VILLAGE - LIFO</t>
-        </is>
-      </c>
-      <c r="S62" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr"/>
@@ -4080,13 +4106,21 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>2500 STATE RD</t>
-        </is>
-      </c>
-      <c r="S63" t="inlineStr"/>
+          <t>Katelyn</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>work w/ Michael</t>
+        </is>
+      </c>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr">
         <is>
@@ -4136,10 +4170,14 @@
         </is>
       </c>
       <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/LmjtMiqATfw</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="S64" t="inlineStr"/>
@@ -4188,10 +4226,14 @@
       </c>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>*JERRY* meet with Bri at Deforest Park n Ride to help split up the drive</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S65" t="inlineStr"/>
@@ -4235,13 +4277,21 @@
       </c>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>Jerry + van to meet with Bri at 4:35 at the Deforest Park n Ride</t>
-        </is>
-      </c>
-      <c r="S66" t="inlineStr"/>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr">
         <is>
@@ -4278,14 +4328,21 @@
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>Address to meet Bri at is:
-5012 Elephant Trail, DeForest</t>
-        </is>
-      </c>
-      <c r="S67" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr">
         <is>
@@ -4322,9 +4379,21 @@
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr">
         <is>
@@ -4363,17 +4432,17 @@
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T69" t="inlineStr"/>
@@ -4414,17 +4483,17 @@
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>Bri</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>*meeting in Deforest</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T70" t="inlineStr"/>
@@ -4465,15 +4534,19 @@
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>Caitlin</t>
-        </is>
-      </c>
-      <c r="S71" t="inlineStr"/>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr">
         <is>
@@ -4512,18 +4585,18 @@
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>Driver,
-Red Van</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="T72" t="inlineStr"/>
@@ -4564,17 +4637,17 @@
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>Katelyn</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>work w/ Michael</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T73" t="inlineStr"/>
@@ -4613,16 +4686,8 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="R74" t="inlineStr">
-        <is>
-          <t>Pamela</t>
-        </is>
-      </c>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr">
@@ -4660,16 +4725,8 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="R75" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr">
@@ -4707,21 +4764,13 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
+      <c r="Q76" t="inlineStr"/>
       <c r="R76" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="S76" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Office</t>
+        </is>
+      </c>
+      <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr"/>
       <c r="V76" t="inlineStr"/>
@@ -4746,21 +4795,13 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
+      <c r="Q77" t="inlineStr"/>
       <c r="R77" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="S77" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr"/>
       <c r="V77" t="inlineStr"/>
@@ -4768,357 +4809,6 @@
       <c r="X77" t="inlineStr"/>
       <c r="Y77" t="inlineStr"/>
     </row>
-    <row r="78">
-      <c r="A78" t="inlineStr"/>
-      <c r="B78" t="inlineStr"/>
-      <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr"/>
-      <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="inlineStr"/>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
-      <c r="R78" t="inlineStr">
-        <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="S78" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="T78" t="inlineStr"/>
-      <c r="U78" t="inlineStr"/>
-      <c r="V78" t="inlineStr"/>
-      <c r="W78" t="inlineStr"/>
-      <c r="X78" t="inlineStr"/>
-      <c r="Y78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr"/>
-      <c r="B79" t="inlineStr"/>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="inlineStr"/>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
-      <c r="R79" t="inlineStr">
-        <is>
-          <t>Josh S</t>
-        </is>
-      </c>
-      <c r="S79" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="T79" t="inlineStr"/>
-      <c r="U79" t="inlineStr"/>
-      <c r="V79" t="inlineStr"/>
-      <c r="W79" t="inlineStr"/>
-      <c r="X79" t="inlineStr"/>
-      <c r="Y79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr"/>
-      <c r="B80" t="inlineStr"/>
-      <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr"/>
-      <c r="G80" t="inlineStr"/>
-      <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="inlineStr"/>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
-      <c r="R80" t="inlineStr">
-        <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="S80" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="T80" t="inlineStr"/>
-      <c r="U80" t="inlineStr"/>
-      <c r="V80" t="inlineStr"/>
-      <c r="W80" t="inlineStr"/>
-      <c r="X80" t="inlineStr"/>
-      <c r="Y80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr"/>
-      <c r="B81" t="inlineStr"/>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr"/>
-      <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="inlineStr"/>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="R81" t="inlineStr">
-        <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="S81" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="T81" t="inlineStr"/>
-      <c r="U81" t="inlineStr"/>
-      <c r="V81" t="inlineStr"/>
-      <c r="W81" t="inlineStr"/>
-      <c r="X81" t="inlineStr"/>
-      <c r="Y81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr"/>
-      <c r="B82" t="inlineStr"/>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr"/>
-      <c r="G82" t="inlineStr"/>
-      <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="inlineStr"/>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="R82" t="inlineStr">
-        <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="S82" t="inlineStr">
-        <is>
-          <t>@ Store,
-Trainer</t>
-        </is>
-      </c>
-      <c r="T82" t="inlineStr"/>
-      <c r="U82" t="inlineStr"/>
-      <c r="V82" t="inlineStr"/>
-      <c r="W82" t="inlineStr"/>
-      <c r="X82" t="inlineStr"/>
-      <c r="Y82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr"/>
-      <c r="B83" t="inlineStr"/>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr"/>
-      <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="inlineStr"/>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="R83" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="S83" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="T83" t="inlineStr"/>
-      <c r="U83" t="inlineStr"/>
-      <c r="V83" t="inlineStr"/>
-      <c r="W83" t="inlineStr"/>
-      <c r="X83" t="inlineStr"/>
-      <c r="Y83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr"/>
-      <c r="B84" t="inlineStr"/>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr"/>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="inlineStr"/>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="inlineStr"/>
-      <c r="T84" t="inlineStr"/>
-      <c r="U84" t="inlineStr"/>
-      <c r="V84" t="inlineStr"/>
-      <c r="W84" t="inlineStr"/>
-      <c r="X84" t="inlineStr"/>
-      <c r="Y84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr"/>
-      <c r="B85" t="inlineStr"/>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="inlineStr"/>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="inlineStr"/>
-      <c r="T85" t="inlineStr"/>
-      <c r="U85" t="inlineStr"/>
-      <c r="V85" t="inlineStr"/>
-      <c r="W85" t="inlineStr"/>
-      <c r="X85" t="inlineStr"/>
-      <c r="Y85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr"/>
-      <c r="B86" t="inlineStr"/>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="inlineStr"/>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
-      <c r="S86" t="inlineStr"/>
-      <c r="T86" t="inlineStr"/>
-      <c r="U86" t="inlineStr"/>
-      <c r="V86" t="inlineStr"/>
-      <c r="W86" t="inlineStr"/>
-      <c r="X86" t="inlineStr"/>
-      <c r="Y86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr"/>
-      <c r="B87" t="inlineStr"/>
-      <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr"/>
-      <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="inlineStr"/>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="S87" t="inlineStr"/>
-      <c r="T87" t="inlineStr"/>
-      <c r="U87" t="inlineStr"/>
-      <c r="V87" t="inlineStr"/>
-      <c r="W87" t="inlineStr"/>
-      <c r="X87" t="inlineStr"/>
-      <c r="Y87" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/10-05-25 to 10-11-25 Milwaukee Schedule.xlsx
+++ b/10-05-25 to 10-11-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y77"/>
+  <dimension ref="A1:Y78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4386,7 +4386,7 @@
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="S68" t="inlineStr">
@@ -4437,7 +4437,7 @@
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="S69" t="inlineStr">
@@ -4488,7 +4488,7 @@
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="S70" t="inlineStr">
@@ -4539,7 +4539,7 @@
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="S71" t="inlineStr">
@@ -4590,13 +4590,12 @@
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>@ Store,
-Trainer</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T72" t="inlineStr"/>
@@ -4642,12 +4641,13 @@
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="T73" t="inlineStr"/>
@@ -4686,9 +4686,21 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr">
         <is>
@@ -4765,11 +4777,7 @@
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr"/>
       <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="R76" t="inlineStr"/>
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr"/>
@@ -4798,7 +4806,7 @@
       <c r="Q77" t="inlineStr"/>
       <c r="R77" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="S77" t="inlineStr"/>
@@ -4809,6 +4817,37 @@
       <c r="X77" t="inlineStr"/>
       <c r="Y77" t="inlineStr"/>
     </row>
+    <row r="78">
+      <c r="A78" t="inlineStr"/>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="S78" t="inlineStr"/>
+      <c r="T78" t="inlineStr"/>
+      <c r="U78" t="inlineStr"/>
+      <c r="V78" t="inlineStr"/>
+      <c r="W78" t="inlineStr"/>
+      <c r="X78" t="inlineStr"/>
+      <c r="Y78" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/10-05-25 to 10-11-25 Milwaukee Schedule.xlsx
+++ b/10-05-25 to 10-11-25 Milwaukee Schedule.xlsx
@@ -1199,15 +1199,10 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>Brianna E</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>2nd week,
-work w/ Carlie</t>
-        </is>
-      </c>
+          <t>Caitlin</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
     </row>
@@ -1287,10 +1282,14 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>Caitlin</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
     </row>
@@ -1358,14 +1357,10 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="W18" t="inlineStr">
-        <is>
-          <t>Trainer</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
     </row>
@@ -1447,10 +1442,14 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr"/>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>3rd week</t>
+        </is>
+      </c>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
     </row>
@@ -1527,14 +1526,10 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>3rd week</t>
-        </is>
-      </c>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
     </row>
@@ -1608,10 +1603,14 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr"/>
+          <t>Katelyn</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>3rd week</t>
+        </is>
+      </c>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
     </row>
@@ -1684,14 +1683,10 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Katelyn</t>
-        </is>
-      </c>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>3rd week</t>
-        </is>
-      </c>
+          <t>Lexi</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
     </row>
@@ -1763,10 +1758,14 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Lexi</t>
-        </is>
-      </c>
-      <c r="W23" t="inlineStr"/>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
     </row>
@@ -1842,14 +1841,10 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="W24" t="inlineStr">
-        <is>
-          <t>Trainer</t>
-        </is>
-      </c>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
     </row>
@@ -1922,7 +1917,7 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="W25" t="inlineStr"/>
@@ -2001,7 +1996,7 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="W26" t="inlineStr"/>
@@ -2080,10 +2075,14 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr"/>
+          <t>Sophia</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>3rd week</t>
+        </is>
+      </c>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
     </row>
@@ -2145,21 +2144,9 @@
         </is>
       </c>
       <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>Sophia</t>
-        </is>
-      </c>
-      <c r="W28" t="inlineStr">
-        <is>
-          <t>3rd week</t>
-        </is>
-      </c>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
     </row>
@@ -2273,7 +2260,11 @@
       </c>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>4:45 AM MEET WATERTOWN PLANK</t>
+        </is>
+      </c>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
@@ -2306,7 +2297,7 @@
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr">
         <is>
-          <t>4:45 AM MEET WATERTOWN PLANK</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="W31" t="inlineStr"/>
@@ -2345,7 +2336,7 @@
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W32" t="inlineStr"/>
@@ -2392,7 +2383,7 @@
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>FESTIVAL #2695, NEW LONDON - LIFO</t>
         </is>
       </c>
       <c r="W33" t="inlineStr"/>
@@ -2439,7 +2430,7 @@
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr">
         <is>
-          <t>FESTIVAL #2695, NEW LONDON - LIFO</t>
+          <t>308 N SHAWANO ST</t>
         </is>
       </c>
       <c r="W34" t="inlineStr"/>
@@ -2486,7 +2477,7 @@
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t>308 N SHAWANO ST</t>
+          <t>https://goo.gl/maps/zqprqLmVpCzdH3s86</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
@@ -2531,11 +2522,7 @@
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/zqprqLmVpCzdH3s86</t>
-        </is>
-      </c>
+      <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
@@ -2577,9 +2564,21 @@
       </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Jeremiah</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
     </row>
@@ -2614,17 +2613,18 @@
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>Driver,
+Wht Camry</t>
         </is>
       </c>
       <c r="X38" t="inlineStr"/>
@@ -2686,20 +2686,15 @@
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr">
-        <is>
-          <t>Driver,
-Wht Camry</t>
-        </is>
-      </c>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
     </row>
@@ -2751,15 +2746,19 @@
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="W40" t="inlineStr"/>
+          <t>Annette</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
     </row>
@@ -2826,12 +2825,12 @@
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Ariel</t>
         </is>
       </c>
       <c r="W41" t="inlineStr">
@@ -2882,15 +2881,10 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Brianna E</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>2nd week,
-work w/ Carlie</t>
-        </is>
-      </c>
+          <t>Caitlin</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr">
@@ -2902,12 +2896,12 @@
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>Ariel</t>
+          <t>Dan</t>
         </is>
       </c>
       <c r="W42" t="inlineStr">
@@ -2958,7 +2952,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Caitlin</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
@@ -2973,12 +2967,12 @@
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>Dan</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="W43" t="inlineStr">
@@ -3029,14 +3023,10 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>Trainer</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr"/>
@@ -3044,12 +3034,12 @@
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="W44" t="inlineStr">
@@ -3100,7 +3090,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
@@ -3124,12 +3114,12 @@
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="W45" t="inlineStr">
@@ -3184,10 +3174,14 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>After Aurora</t>
+        </is>
+      </c>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
@@ -3203,12 +3197,12 @@
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="W46" t="inlineStr">
@@ -3265,14 +3259,10 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>After Aurora</t>
-        </is>
-      </c>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr"/>
@@ -3280,12 +3270,12 @@
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="W47" t="inlineStr">
@@ -3329,7 +3319,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
@@ -3340,12 +3330,12 @@
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="W48" t="inlineStr">
@@ -3388,10 +3378,14 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Lexi</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr"/>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>After Aurora</t>
+        </is>
+      </c>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">
@@ -3403,12 +3397,12 @@
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="W49" t="inlineStr">
@@ -3443,7 +3437,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -3462,12 +3456,12 @@
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="W50" t="inlineStr">
@@ -3502,12 +3496,12 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>After Aurora</t>
+          <t>Until 9:00</t>
         </is>
       </c>
       <c r="P51" t="inlineStr"/>
@@ -3521,12 +3515,12 @@
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Terri</t>
         </is>
       </c>
       <c r="W51" t="inlineStr">
@@ -3566,14 +3560,10 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>Until 9:00</t>
-        </is>
-      </c>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
@@ -3583,21 +3573,9 @@
       </c>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="V52" t="inlineStr">
-        <is>
-          <t>Terri</t>
-        </is>
-      </c>
-      <c r="W52" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
     </row>
@@ -3629,10 +3607,15 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr"/>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>@ Store,
+Rx</t>
+        </is>
+      </c>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
@@ -3676,13 +3659,13 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
           <t>@ Store,
-Rx</t>
+Supv Rx</t>
         </is>
       </c>
       <c r="P54" t="inlineStr"/>
@@ -3695,7 +3678,11 @@
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
-      <c r="V54" t="inlineStr"/>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>5:15 AM OFFICE MEET</t>
+        </is>
+      </c>
       <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr"/>
       <c r="Y54" t="inlineStr"/>
@@ -3717,22 +3704,9 @@
       </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>@ Store,
-Supv Rx</t>
-        </is>
-      </c>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
@@ -3745,7 +3719,7 @@
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr">
         <is>
-          <t>5:15 AM OFFICE MEET</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="W55" t="inlineStr"/>
@@ -3796,7 +3770,7 @@
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W56" t="inlineStr"/>
@@ -3821,7 +3795,11 @@
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
@@ -3836,7 +3814,7 @@
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>FESTIVAL #2713, MADISON - LIFO</t>
         </is>
       </c>
       <c r="W57" t="inlineStr"/>
@@ -3863,7 +3841,7 @@
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
@@ -3875,7 +3853,7 @@
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr">
         <is>
-          <t>FESTIVAL #2713, MADISON - LIFO</t>
+          <t>810 E WASHINGTON AVE</t>
         </is>
       </c>
       <c r="W58" t="inlineStr"/>
@@ -3902,7 +3880,7 @@
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>AURORA OUTPATIENT RX #1050, ST FRANCIS</t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
@@ -3926,7 +3904,7 @@
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr">
         <is>
-          <t>810 E WASHINGTON AVE</t>
+          <t>https://goo.gl/maps/LTUs2YEH41J2</t>
         </is>
       </c>
       <c r="W59" t="inlineStr"/>
@@ -3949,7 +3927,8 @@
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1050, ST FRANCIS</t>
+          <t>2000 E LAYTON AVENUE 
+SUITE 150</t>
         </is>
       </c>
       <c r="O60" t="inlineStr"/>
@@ -3973,7 +3952,7 @@
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/LTUs2YEH41J2</t>
+          <t>FEW RESETS-REMAPPED</t>
         </is>
       </c>
       <c r="W60" t="inlineStr"/>
@@ -4009,8 +3988,7 @@
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
         <is>
-          <t>2000 E LAYTON AVENUE 
-SUITE 150</t>
+          <t>https://goo.gl/maps/saDijnsPM7S2</t>
         </is>
       </c>
       <c r="O61" t="inlineStr"/>
@@ -4028,11 +4006,7 @@
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr">
-        <is>
-          <t>FEW RESETS-REMAPPED</t>
-        </is>
-      </c>
+      <c r="V61" t="inlineStr"/>
       <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
@@ -4059,11 +4033,7 @@
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/saDijnsPM7S2</t>
-        </is>
-      </c>
+      <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr">
@@ -4083,9 +4053,21 @@
         </is>
       </c>
       <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr"/>
-      <c r="V62" t="inlineStr"/>
-      <c r="W62" t="inlineStr"/>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr"/>
     </row>
@@ -4102,9 +4084,22 @@
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
-      <c r="O63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>Driver,
+Wht Camry, Equip</t>
+        </is>
+      </c>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr">
         <is>
@@ -4124,17 +4119,18 @@
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="W63" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>Driver,
+Altima</t>
         </is>
       </c>
       <c r="X63" t="inlineStr"/>
@@ -4155,20 +4151,15 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>Driver,
-Wht Camry, Equip</t>
-        </is>
-      </c>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr">
         <is>
@@ -4184,20 +4175,15 @@
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="W64" t="inlineStr">
-        <is>
-          <t>Driver,
-Altima</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr"/>
       <c r="X64" t="inlineStr"/>
       <c r="Y64" t="inlineStr"/>
     </row>
@@ -4216,12 +4202,12 @@
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="O65" t="inlineStr"/>
@@ -4240,15 +4226,19 @@
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="W65" t="inlineStr"/>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X65" t="inlineStr"/>
       <c r="Y65" t="inlineStr"/>
     </row>
@@ -4265,16 +4255,8 @@
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>Monica</t>
-        </is>
-      </c>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr">
@@ -4295,12 +4277,12 @@
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="W66" t="inlineStr">
@@ -4346,12 +4328,12 @@
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="W67" t="inlineStr">
@@ -4397,12 +4379,12 @@
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="W68" t="inlineStr">
@@ -4448,12 +4430,12 @@
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="W69" t="inlineStr">
@@ -4499,12 +4481,12 @@
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="W70" t="inlineStr">
@@ -4550,12 +4532,12 @@
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="W71" t="inlineStr">
@@ -4601,12 +4583,12 @@
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="W72" t="inlineStr">
@@ -4653,12 +4635,12 @@
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="W73" t="inlineStr">
@@ -4704,12 +4686,12 @@
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="W74" t="inlineStr">
@@ -4741,21 +4723,9 @@
       <c r="R75" t="inlineStr"/>
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
-      <c r="U75" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="V75" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="W75" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U75" t="inlineStr"/>
+      <c r="V75" t="inlineStr"/>
+      <c r="W75" t="inlineStr"/>
       <c r="X75" t="inlineStr"/>
       <c r="Y75" t="inlineStr"/>
     </row>

--- a/10-05-25 to 10-11-25 Milwaukee Schedule.xlsx
+++ b/10-05-25 to 10-11-25 Milwaukee Schedule.xlsx
@@ -1654,10 +1654,14 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr"/>
+          <t>Sophia</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>work w/ Michael</t>
+        </is>
+      </c>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
@@ -1726,12 +1730,12 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Sophia</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>work w/ Michael</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P23" t="inlineStr"/>
@@ -1809,12 +1813,13 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="P24" t="inlineStr"/>
@@ -1884,13 +1889,12 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Bri</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>@ Store,
-Trainer</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P25" t="inlineStr"/>
@@ -1964,7 +1968,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Bri</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2043,12 +2047,13 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="P27" t="inlineStr"/>
@@ -2118,13 +2123,12 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P28" t="inlineStr"/>
@@ -2178,12 +2182,13 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="P29" t="inlineStr"/>
@@ -2226,22 +2231,9 @@
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>@ Store,
-Trainer</t>
-        </is>
-      </c>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2326,7 +2318,11 @@
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
@@ -2367,7 +2363,7 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>SCAN-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
@@ -2414,7 +2410,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t>METRO #885 +RX, WAUWATOSA</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
@@ -2461,7 +2457,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>METRO #885 +RX, WAUWATOSA</t>
+          <t>6950 W STATE ST</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -2508,7 +2504,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>6950 W STATE ST</t>
+          <t>https://goo.gl/maps/8KffqM17qkx</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2551,7 +2547,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/8KffqM17qkx</t>
+          <t>SET UP ON REG #5</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -2598,7 +2594,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>SET UP ON REG #5</t>
+          <t>FULL STORE RESET-REMAPPED</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -2669,11 +2665,7 @@
       </c>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>FULL STORE RESET-REMAPPED</t>
-        </is>
-      </c>
+      <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
@@ -2732,9 +2724,21 @@
         </is>
       </c>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Santa Fe available, Equip</t>
+        </is>
+      </c>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
@@ -2801,19 +2805,15 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>Santa Fe available, Equip</t>
-        </is>
-      </c>
+          <t>Caitlin</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
@@ -2876,15 +2876,19 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Caitlin</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>After Aurora</t>
+        </is>
+      </c>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr">
@@ -2947,12 +2951,12 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
@@ -3018,12 +3022,12 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
@@ -3085,15 +3089,19 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>After Aurora</t>
+        </is>
+      </c>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3169,19 +3177,15 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>After Aurora</t>
-        </is>
-      </c>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
@@ -3254,12 +3258,12 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
@@ -3314,15 +3318,19 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Lexi</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr"/>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>After Aurora</t>
+        </is>
+      </c>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr"/>
@@ -3373,17 +3381,17 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>After Aurora</t>
+          <t>Until 9:00</t>
         </is>
       </c>
       <c r="P49" t="inlineStr"/>
@@ -3432,19 +3440,15 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>After Aurora</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr">
@@ -3491,19 +3495,15 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>Until 9:00</t>
-        </is>
-      </c>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr">
@@ -3555,15 +3555,20 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr"/>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>@ Store,
+Rx</t>
+        </is>
+      </c>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
@@ -3602,18 +3607,18 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
           <t>@ Store,
-Rx</t>
+Supv Rx</t>
         </is>
       </c>
       <c r="P53" t="inlineStr"/>
@@ -3652,22 +3657,9 @@
       </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>@ Store,
-Supv Rx</t>
-        </is>
-      </c>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr">
@@ -3705,7 +3697,11 @@
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
@@ -3756,7 +3752,11 @@
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>MODAS-SCAN</t>
+        </is>
+      </c>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
@@ -3797,7 +3797,7 @@
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>AURORA OUTPATIENT RX #1050, ST FRANCIS</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
@@ -3841,7 +3841,8 @@
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>2000 E LAYTON AVENUE 
+SUITE 150</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
@@ -3880,7 +3881,7 @@
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1050, ST FRANCIS</t>
+          <t>https://goo.gl/maps/saDijnsPM7S2</t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
@@ -3925,12 +3926,7 @@
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>2000 E LAYTON AVENUE 
-SUITE 150</t>
-        </is>
-      </c>
+      <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr">
@@ -3985,13 +3981,22 @@
         </is>
       </c>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/saDijnsPM7S2</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>Driver,
+Wht Camry, Equip</t>
+        </is>
+      </c>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr">
         <is>
@@ -4032,8 +4037,16 @@
       </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>Carlie</t>
+        </is>
+      </c>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr">
@@ -4086,20 +4099,15 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>Driver,
-Wht Camry, Equip</t>
-        </is>
-      </c>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr">
         <is>
@@ -4149,16 +4157,8 @@
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>Leyna</t>
-        </is>
-      </c>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr">
@@ -4200,16 +4200,8 @@
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>Monica</t>
-        </is>
-      </c>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr">
